--- a/Documentação/dias projeto.xlsx
+++ b/Documentação/dias projeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/caue_oliveira_sptech_school/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/alexandre_nichiojr_sptech_school/Documents/Área de Trabalho/temp/Sprint2/fungitech/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7921C507-8602-4C65-94DE-797162BBF46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{7921C507-8602-4C65-94DE-797162BBF46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FCD348B-DAA4-44B7-BBEA-09AA7136CFBA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A1EC1B0-117D-4488-A9B2-9140695C43A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>FungiTech Solutions</t>
   </si>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF80350F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC8864D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,23 +253,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -278,6 +278,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC8864D"/>
+      <color rgb="FF80350F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -608,219 +614,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA239CA2-9EBD-432E-8F72-8EAF8073DA70}">
   <dimension ref="D1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" ht="17.45" customHeight="1">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="4:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="4:5" ht="16.899999999999999" customHeight="1">
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="4:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="4:5">
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:5">
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>45379</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="4" t="s">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="4" t="s">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="4" t="s">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="4" t="s">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>45379</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="4" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="15">
-      <c r="D23" s="4" t="s">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="15">
-      <c r="D24" s="3" t="s">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -830,20 +836,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="32844186-265b-4793-912a-671da4ac73b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="32844186-265b-4793-912a-671da4ac73b2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,13 +1074,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8D3B4A7-6634-4FBA-953D-DC45436532DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{720BC78E-D489-403E-9131-3B0F5F7D2102}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="32844186-265b-4793-912a-671da4ac73b2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{720BC78E-D489-403E-9131-3B0F5F7D2102}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8D3B4A7-6634-4FBA-953D-DC45436532DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3A404C-24E5-45BC-8BC8-55D18F267D9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3A404C-24E5-45BC-8BC8-55D18F267D9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="32844186-265b-4793-912a-671da4ac73b2"/>
+    <ds:schemaRef ds:uri="97232348-304c-4ff8-affc-b0d6bfd913f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>